--- a/bloodhound/institutionCodes_biodiversity_next_reach.xlsx
+++ b/bloodhound/institutionCodes_biodiversity_next_reach.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Jane Melville" sheetId="6" r:id="rId1"/>
@@ -870,7 +870,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1242,7 +1242,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,7 +1383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
@@ -2047,7 +2047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
